--- a/assets/pdf/2019_ESM2014-14_Mid_Score.xlsx
+++ b/assets/pdf/2019_ESM2014-14_Mid_Score.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\SKKU\exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC26F27B-57FF-4C21-92DB-63FC66C8768B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBA3D09-918C-41BD-A071-2BDEE552B04F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8CD8F159-7570-45AA-9D34-278078A2BCFD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8CD8F159-7570-45AA-9D34-278078A2BCFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -480,6 +480,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -799,7 +802,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
+      <selection pane="bottomLeft" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -878,16 +881,16 @@
       <c r="I2">
         <v>18</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>3.6</v>
       </c>
       <c r="K2">
         <v>138</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>27.6</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>41.2</v>
       </c>
       <c r="P2" t="s">
@@ -916,16 +919,16 @@
       <c r="I3">
         <v>19</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>3.8</v>
       </c>
       <c r="K3">
         <v>129</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>25.8</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>39.6</v>
       </c>
       <c r="P3" t="s">
@@ -933,7 +936,7 @@
       </c>
       <c r="Q3">
         <f>AVERAGE(K2:K67)</f>
-        <v>75.484848484848484</v>
+        <v>75.63636363636364</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -958,16 +961,16 @@
       <c r="I4">
         <v>17</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>3.4</v>
       </c>
       <c r="K4">
         <v>123</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>24.6</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>38</v>
       </c>
       <c r="P4" t="s">
@@ -1000,16 +1003,16 @@
       <c r="I5">
         <v>18</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>3.6</v>
       </c>
       <c r="K5">
         <v>122</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>24.4</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>38</v>
       </c>
     </row>
@@ -1035,16 +1038,16 @@
       <c r="I6">
         <v>15</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>3</v>
       </c>
       <c r="K6">
         <v>122</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>24.4</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>37.4</v>
       </c>
       <c r="P6" t="s">
@@ -1073,16 +1076,16 @@
       <c r="I7">
         <v>20</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>4</v>
       </c>
       <c r="K7">
         <v>116</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>23.2</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <v>37.200000000000003</v>
       </c>
       <c r="P7" t="s">
@@ -1090,7 +1093,7 @@
       </c>
       <c r="Q7">
         <f>AVERAGE(M2:M67)</f>
-        <v>28.215151515151511</v>
+        <v>28.245454545454542</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1115,16 +1118,16 @@
       <c r="I8">
         <v>20</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>4</v>
       </c>
       <c r="K8">
         <v>111</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>22.2</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>36.200000000000003</v>
       </c>
       <c r="P8" t="s">
@@ -1157,16 +1160,16 @@
       <c r="I9">
         <v>17</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>3.4</v>
       </c>
       <c r="K9">
         <v>114</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>22.8</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <v>36.200000000000003</v>
       </c>
     </row>
@@ -1192,16 +1195,16 @@
       <c r="I10">
         <v>20</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>4</v>
       </c>
       <c r="K10">
         <v>109</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>21.8</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>35.799999999999997</v>
       </c>
     </row>
@@ -1227,16 +1230,16 @@
       <c r="I11">
         <v>19</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>3.8</v>
       </c>
       <c r="K11">
         <v>108</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="3">
         <v>21.6</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="3">
         <v>35.400000000000006</v>
       </c>
     </row>
@@ -1262,16 +1265,16 @@
       <c r="I12">
         <v>18</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>3.6</v>
       </c>
       <c r="K12">
         <v>109</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="3">
         <v>21.8</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="3">
         <v>35.4</v>
       </c>
     </row>
@@ -1297,16 +1300,16 @@
       <c r="I13">
         <v>20</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <v>4</v>
       </c>
       <c r="K13">
         <v>105</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="3">
         <v>21</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="3">
         <v>35</v>
       </c>
     </row>
@@ -1332,16 +1335,16 @@
       <c r="I14">
         <v>19</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="3">
         <v>3.8</v>
       </c>
       <c r="K14">
         <v>106</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="3">
         <v>21.2</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="3">
         <v>35</v>
       </c>
     </row>
@@ -1367,16 +1370,16 @@
       <c r="I15">
         <v>16</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="3">
         <v>3.2</v>
       </c>
       <c r="K15">
         <v>105</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="3">
         <v>21</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="3">
         <v>34.200000000000003</v>
       </c>
     </row>
@@ -1402,16 +1405,16 @@
       <c r="I16">
         <v>7</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <v>1.4</v>
       </c>
       <c r="K16">
         <v>114</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="3">
         <v>22.8</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="3">
         <v>34.200000000000003</v>
       </c>
     </row>
@@ -1437,16 +1440,16 @@
       <c r="I17">
         <v>16</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="3">
         <v>3.2</v>
       </c>
       <c r="K17">
         <v>101</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="3">
         <v>20.2</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="3">
         <v>33.4</v>
       </c>
     </row>
@@ -1472,16 +1475,16 @@
       <c r="I18">
         <v>17</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="3">
         <v>3.4</v>
       </c>
       <c r="K18">
         <v>99</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="3">
         <v>19.8</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="3">
         <v>33.200000000000003</v>
       </c>
     </row>
@@ -1507,25 +1510,25 @@
       <c r="I19">
         <v>18</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <v>3.6</v>
       </c>
       <c r="K19">
         <v>98</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="3">
         <v>19.600000000000001</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="3">
         <v>33.200000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -1534,33 +1537,33 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F20">
         <v>10</v>
       </c>
       <c r="I20">
-        <v>17</v>
-      </c>
-      <c r="J20">
-        <v>3.4</v>
+        <v>20</v>
+      </c>
+      <c r="J20" s="3">
+        <v>4</v>
       </c>
       <c r="K20">
-        <v>98</v>
-      </c>
-      <c r="L20">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="M20">
-        <v>33</v>
+        <v>96</v>
+      </c>
+      <c r="L20" s="3">
+        <v>19.2</v>
+      </c>
+      <c r="M20" s="3">
+        <v>33.200000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -1569,33 +1572,33 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21">
         <v>10</v>
       </c>
       <c r="I21">
-        <v>18</v>
-      </c>
-      <c r="J21">
-        <v>3.6</v>
+        <v>17</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3.4</v>
       </c>
       <c r="K21">
-        <v>97</v>
-      </c>
-      <c r="L21">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="M21">
+        <v>98</v>
+      </c>
+      <c r="L21" s="3">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="M21" s="3">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C22">
         <v>10</v>
@@ -1604,33 +1607,33 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I22">
-        <v>15</v>
-      </c>
-      <c r="J22">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3.6</v>
       </c>
       <c r="K22">
-        <v>93</v>
-      </c>
-      <c r="L22">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="M22">
-        <v>31.6</v>
+        <v>97</v>
+      </c>
+      <c r="L22" s="3">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="M22" s="3">
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23">
         <v>10</v>
@@ -1639,33 +1642,33 @@
         <v>0</v>
       </c>
       <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
         <v>9</v>
       </c>
-      <c r="F23">
-        <v>10</v>
-      </c>
       <c r="I23">
-        <v>19</v>
-      </c>
-      <c r="J23">
-        <v>3.8</v>
+        <v>15</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3</v>
       </c>
       <c r="K23">
-        <v>89</v>
-      </c>
-      <c r="L23">
-        <v>17.8</v>
-      </c>
-      <c r="M23">
+        <v>93</v>
+      </c>
+      <c r="L23" s="3">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="M23" s="3">
         <v>31.6</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24">
         <v>10</v>
@@ -1674,25 +1677,25 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24">
         <v>10</v>
       </c>
       <c r="I24">
-        <v>20</v>
-      </c>
-      <c r="J24">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="J24" s="3">
+        <v>3.8</v>
       </c>
       <c r="K24">
-        <v>86</v>
-      </c>
-      <c r="L24">
-        <v>17.2</v>
-      </c>
-      <c r="M24">
-        <v>31.2</v>
+        <v>89</v>
+      </c>
+      <c r="L24" s="3">
+        <v>17.8</v>
+      </c>
+      <c r="M24" s="3">
+        <v>31.6</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -1717,16 +1720,16 @@
       <c r="I25">
         <v>16</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="3">
         <v>3.2</v>
       </c>
       <c r="K25">
         <v>88</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="3">
         <v>17.600000000000001</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="3">
         <v>30.8</v>
       </c>
     </row>
@@ -1752,16 +1755,16 @@
       <c r="I26">
         <v>16</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="3">
         <v>3.2</v>
       </c>
       <c r="K26">
         <v>87</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="3">
         <v>17.399999999999999</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="3">
         <v>30.599999999999998</v>
       </c>
     </row>
@@ -1787,16 +1790,16 @@
       <c r="I27">
         <v>20</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="3">
         <v>4</v>
       </c>
       <c r="K27">
         <v>82</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="3">
         <v>16.399999999999999</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="3">
         <v>30.4</v>
       </c>
     </row>
@@ -1822,16 +1825,16 @@
       <c r="I28">
         <v>18</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="3">
         <v>3.6</v>
       </c>
       <c r="K28">
         <v>84</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="3">
         <v>16.8</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="3">
         <v>30.4</v>
       </c>
     </row>
@@ -1857,16 +1860,16 @@
       <c r="I29">
         <v>17</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="3">
         <v>3.4</v>
       </c>
       <c r="K29">
         <v>83</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="3">
         <v>16.600000000000001</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="3">
         <v>30</v>
       </c>
     </row>
@@ -1892,16 +1895,16 @@
       <c r="I30">
         <v>16</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="3">
         <v>3.2</v>
       </c>
       <c r="K30">
         <v>84</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="3">
         <v>16.8</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="3">
         <v>30</v>
       </c>
     </row>
@@ -1927,16 +1930,16 @@
       <c r="I31">
         <v>20</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="3">
         <v>4</v>
       </c>
       <c r="K31">
         <v>80</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="3">
         <v>16</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="3">
         <v>30</v>
       </c>
     </row>
@@ -1962,16 +1965,16 @@
       <c r="I32">
         <v>20</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="3">
         <v>4</v>
       </c>
       <c r="K32">
         <v>79</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="3">
         <v>15.8</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="3">
         <v>29.8</v>
       </c>
     </row>
@@ -1997,16 +2000,16 @@
       <c r="I33">
         <v>20</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="3">
         <v>4</v>
       </c>
       <c r="K33">
         <v>76</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="3">
         <v>15.2</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="3">
         <v>29.2</v>
       </c>
     </row>
@@ -2032,16 +2035,16 @@
       <c r="I34">
         <v>16</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="3">
         <v>3.2</v>
       </c>
       <c r="K34">
         <v>80</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="3">
         <v>16</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="3">
         <v>29.2</v>
       </c>
     </row>
@@ -2067,16 +2070,16 @@
       <c r="I35">
         <v>20</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="3">
         <v>4</v>
       </c>
       <c r="K35">
         <v>80</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="3">
         <v>16</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="3">
         <v>29</v>
       </c>
     </row>
@@ -2102,16 +2105,16 @@
       <c r="I36">
         <v>7</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="3">
         <v>1.4</v>
       </c>
       <c r="K36">
         <v>88</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="3">
         <v>17.600000000000001</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="3">
         <v>29</v>
       </c>
     </row>
@@ -2137,16 +2140,16 @@
       <c r="I37">
         <v>17</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="3">
         <v>3.4</v>
       </c>
       <c r="K37">
         <v>76</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="3">
         <v>15.2</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="3">
         <v>28.6</v>
       </c>
     </row>
@@ -2172,16 +2175,16 @@
       <c r="I38">
         <v>13</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="3">
         <v>2.6</v>
       </c>
       <c r="K38">
         <v>80</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="3">
         <v>16</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="3">
         <v>28.6</v>
       </c>
     </row>
@@ -2207,16 +2210,16 @@
       <c r="I39">
         <v>16</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="3">
         <v>3.2</v>
       </c>
       <c r="K39">
         <v>76</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="3">
         <v>15.2</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="3">
         <v>28.4</v>
       </c>
     </row>
@@ -2242,16 +2245,16 @@
       <c r="I40">
         <v>7</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="3">
         <v>1.4</v>
       </c>
       <c r="K40">
         <v>84</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="3">
         <v>16.8</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="3">
         <v>28.200000000000003</v>
       </c>
     </row>
@@ -2277,16 +2280,16 @@
       <c r="I41">
         <v>16</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="3">
         <v>3.2</v>
       </c>
       <c r="K41">
         <v>73</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="3">
         <v>14.6</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="3">
         <v>27.799999999999997</v>
       </c>
     </row>
@@ -2312,16 +2315,16 @@
       <c r="I42">
         <v>15</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="3">
         <v>3</v>
       </c>
       <c r="K42">
         <v>70</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="3">
         <v>14</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="3">
         <v>27</v>
       </c>
     </row>
@@ -2347,16 +2350,16 @@
       <c r="I43">
         <v>20</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="3">
         <v>4</v>
       </c>
       <c r="K43">
         <v>64</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="3">
         <v>12.8</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="3">
         <v>26.8</v>
       </c>
     </row>
@@ -2382,16 +2385,16 @@
       <c r="I44">
         <v>19</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="3">
         <v>3.8</v>
       </c>
       <c r="K44">
         <v>65</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="3">
         <v>13</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="3">
         <v>26.8</v>
       </c>
     </row>
@@ -2417,16 +2420,16 @@
       <c r="I45">
         <v>15</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="3">
         <v>3</v>
       </c>
       <c r="K45">
         <v>66</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="3">
         <v>13.2</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="3">
         <v>26.2</v>
       </c>
     </row>
@@ -2452,16 +2455,16 @@
       <c r="I46">
         <v>13</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="3">
         <v>2.6</v>
       </c>
       <c r="K46">
         <v>65</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="3">
         <v>13</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="3">
         <v>25.6</v>
       </c>
     </row>
@@ -2487,16 +2490,16 @@
       <c r="I47">
         <v>19</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="3">
         <v>3.8</v>
       </c>
       <c r="K47">
         <v>59</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="3">
         <v>11.8</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="3">
         <v>25.6</v>
       </c>
     </row>
@@ -2522,16 +2525,16 @@
       <c r="I48">
         <v>17</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="3">
         <v>3.4</v>
       </c>
       <c r="K48">
         <v>61</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="3">
         <v>12.2</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="3">
         <v>25.6</v>
       </c>
     </row>
@@ -2557,16 +2560,16 @@
       <c r="I49">
         <v>18</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="3">
         <v>3.6</v>
       </c>
       <c r="K49">
         <v>58</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="3">
         <v>11.6</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="3">
         <v>25.2</v>
       </c>
     </row>
@@ -2592,16 +2595,16 @@
       <c r="I50">
         <v>20</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="3">
         <v>4</v>
       </c>
       <c r="K50">
         <v>59</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="3">
         <v>11.8</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="3">
         <v>24.8</v>
       </c>
     </row>
@@ -2627,16 +2630,16 @@
       <c r="I51">
         <v>19</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="3">
         <v>3.8</v>
       </c>
       <c r="K51">
         <v>54</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="3">
         <v>10.8</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="3">
         <v>24.6</v>
       </c>
     </row>
@@ -2662,16 +2665,16 @@
       <c r="I52">
         <v>20</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="3">
         <v>4</v>
       </c>
       <c r="K52">
         <v>51</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="3">
         <v>24.2</v>
       </c>
     </row>
@@ -2697,16 +2700,16 @@
       <c r="I53">
         <v>6</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="3">
         <v>1.2</v>
       </c>
       <c r="K53">
         <v>61</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="3">
         <v>12.2</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="3">
         <v>23.4</v>
       </c>
     </row>
@@ -2732,16 +2735,16 @@
       <c r="I54">
         <v>15</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="3">
         <v>3</v>
       </c>
       <c r="K54">
         <v>46</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="3">
         <v>9.1999999999999993</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="3">
         <v>22.2</v>
       </c>
     </row>
@@ -2767,16 +2770,16 @@
       <c r="I55">
         <v>16</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="3">
         <v>3.2</v>
       </c>
       <c r="K55">
         <v>45</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="3">
         <v>9</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="3">
         <v>22.2</v>
       </c>
     </row>
@@ -2802,16 +2805,16 @@
       <c r="I56">
         <v>6</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="3">
         <v>1.2</v>
       </c>
       <c r="K56">
         <v>57</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="3">
         <v>11.4</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="3">
         <v>21.6</v>
       </c>
     </row>
@@ -2837,16 +2840,16 @@
       <c r="I57">
         <v>20</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="3">
         <v>4</v>
       </c>
       <c r="K57">
         <v>37</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="3">
         <v>7.4</v>
       </c>
-      <c r="M57">
+      <c r="M57" s="3">
         <v>21.4</v>
       </c>
     </row>
@@ -2872,16 +2875,16 @@
       <c r="I58">
         <v>14</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="3">
         <v>2.8</v>
       </c>
       <c r="K58">
         <v>40</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="3">
         <v>8</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="3">
         <v>20.8</v>
       </c>
     </row>
@@ -2907,16 +2910,16 @@
       <c r="I59">
         <v>20</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="3">
         <v>4</v>
       </c>
       <c r="K59">
         <v>33</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="3">
         <v>6.6</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="3">
         <v>20.6</v>
       </c>
     </row>
@@ -2942,16 +2945,16 @@
       <c r="I60">
         <v>13</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="3">
         <v>2.6</v>
       </c>
       <c r="K60">
         <v>27</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="3">
         <v>5.4</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="3">
         <v>18</v>
       </c>
     </row>
@@ -2977,16 +2980,16 @@
       <c r="I61">
         <v>6</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="3">
         <v>1.2</v>
       </c>
       <c r="K61">
         <v>33</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="3">
         <v>6.6</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="3">
         <v>17.799999999999997</v>
       </c>
     </row>
@@ -3012,16 +3015,16 @@
       <c r="I62">
         <v>13</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="3">
         <v>2.6</v>
       </c>
       <c r="K62">
         <v>10</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="3">
         <v>2</v>
       </c>
-      <c r="M62">
+      <c r="M62" s="3">
         <v>14.6</v>
       </c>
     </row>
@@ -3047,16 +3050,16 @@
       <c r="I63">
         <v>7</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="3">
         <v>1.4</v>
       </c>
       <c r="K63">
         <v>15</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="3">
         <v>3</v>
       </c>
-      <c r="M63">
+      <c r="M63" s="3">
         <v>14.4</v>
       </c>
     </row>
@@ -3082,16 +3085,16 @@
       <c r="I64">
         <v>18</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="3">
         <v>3.6</v>
       </c>
       <c r="K64">
         <v>2</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="3">
         <v>0.4</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="3">
         <v>14</v>
       </c>
     </row>
@@ -3117,16 +3120,16 @@
       <c r="I65">
         <v>9</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="3">
         <v>1.8</v>
       </c>
       <c r="K65">
         <v>11</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="3">
         <v>14</v>
       </c>
     </row>
@@ -3152,16 +3155,16 @@
       <c r="I66">
         <v>6</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="3">
         <v>1.2</v>
       </c>
       <c r="K66">
         <v>19</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="3">
         <v>3.8</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="3">
         <v>14</v>
       </c>
     </row>
@@ -3187,16 +3190,16 @@
       <c r="I67">
         <v>7</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="3">
         <v>1.4</v>
       </c>
       <c r="K67">
         <v>2</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="3">
         <v>0.4</v>
       </c>
-      <c r="M67">
+      <c r="M67" s="3">
         <v>11.8</v>
       </c>
     </row>

--- a/assets/pdf/2019_ESM2014-14_Mid_Score.xlsx
+++ b/assets/pdf/2019_ESM2014-14_Mid_Score.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\SKKU\exam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\druid\Dropbox\SKKU\exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBA3D09-918C-41BD-A071-2BDEE552B04F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D404089-89B0-455E-B49F-F3A441DB3E8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8CD8F159-7570-45AA-9D34-278078A2BCFD}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{8CD8F159-7570-45AA-9D34-278078A2BCFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -802,10 +802,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:M67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
@@ -818,7 +818,7 @@
     <col min="17" max="17" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -859,7 +859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -882,7 +882,7 @@
         <v>18</v>
       </c>
       <c r="J2" s="3">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="K2">
         <v>138</v>
@@ -891,13 +891,13 @@
         <v>27.6</v>
       </c>
       <c r="M2" s="3">
-        <v>41.2</v>
+        <v>42.1</v>
       </c>
       <c r="P2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -920,7 +920,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="3">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="K3">
         <v>129</v>
@@ -929,22 +929,22 @@
         <v>25.8</v>
       </c>
       <c r="M3" s="3">
-        <v>39.6</v>
+        <v>40.549999999999997</v>
       </c>
       <c r="P3" t="s">
         <v>122</v>
       </c>
       <c r="Q3">
         <f>AVERAGE(K2:K67)</f>
-        <v>75.63636363636364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+        <v>76.939393939393938</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -953,25 +953,25 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
       <c r="I4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" s="3">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="K4">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L4" s="3">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="M4" s="3">
-        <v>38</v>
+        <v>38.9</v>
       </c>
       <c r="P4" t="s">
         <v>124</v>
@@ -981,12 +981,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -995,66 +995,66 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
       <c r="I5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="3">
-        <v>3.6</v>
+        <v>4.25</v>
       </c>
       <c r="K5">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L5" s="3">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="M5" s="3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>38.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="I6">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
-      </c>
-      <c r="I6">
-        <v>15</v>
-      </c>
       <c r="J6" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K6">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L6" s="3">
-        <v>24.4</v>
+        <v>23.8</v>
       </c>
       <c r="M6" s="3">
-        <v>37.4</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="P6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K7">
         <v>116</v>
@@ -1086,22 +1086,22 @@
         <v>23.2</v>
       </c>
       <c r="M7" s="3">
-        <v>37.200000000000003</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="P7" t="s">
         <v>122</v>
       </c>
       <c r="Q7">
         <f>AVERAGE(M2:M67)</f>
-        <v>28.245454545454542</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+        <v>29.300757575757576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -1110,105 +1110,105 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J8" s="3">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K8">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="L8" s="3">
-        <v>22.2</v>
+        <v>24.4</v>
       </c>
       <c r="M8" s="3">
-        <v>36.200000000000003</v>
+        <v>38.15</v>
       </c>
       <c r="P8" t="s">
         <v>124</v>
       </c>
       <c r="Q8">
         <f>MEDIAN(M2:M67)</f>
-        <v>29.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>111</v>
+      </c>
+      <c r="L9" s="3">
+        <v>22.2</v>
+      </c>
+      <c r="M9" s="3">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>7</v>
       </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="I9">
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="I10">
         <v>17</v>
       </c>
-      <c r="J9" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="K9">
+      <c r="J10" s="3">
+        <v>4.25</v>
+      </c>
+      <c r="K10">
         <v>114</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L10" s="3">
         <v>22.8</v>
       </c>
-      <c r="M9" s="3">
-        <v>36.200000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="I10">
-        <v>20</v>
-      </c>
-      <c r="J10" s="3">
-        <v>4</v>
-      </c>
-      <c r="K10">
-        <v>109</v>
-      </c>
-      <c r="L10" s="3">
-        <v>21.8</v>
-      </c>
       <c r="M10" s="3">
-        <v>35.799999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+        <v>37.049999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>19</v>
       </c>
       <c r="J11" s="3">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="K11">
         <v>108</v>
@@ -1240,10 +1240,10 @@
         <v>21.6</v>
       </c>
       <c r="M11" s="3">
-        <v>35.400000000000006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+        <v>36.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>18</v>
       </c>
       <c r="J12" s="3">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="K12">
         <v>109</v>
@@ -1275,10 +1275,10 @@
         <v>21.8</v>
       </c>
       <c r="M12" s="3">
-        <v>35.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K13">
         <v>105</v>
@@ -1310,10 +1310,10 @@
         <v>21</v>
       </c>
       <c r="M13" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>19</v>
       </c>
       <c r="J14" s="3">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="K14">
         <v>106</v>
@@ -1345,120 +1345,120 @@
         <v>21.2</v>
       </c>
       <c r="M14" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>35.950000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>17</v>
+      </c>
+      <c r="J15" s="3">
+        <v>4.25</v>
+      </c>
+      <c r="K15">
+        <v>107</v>
+      </c>
+      <c r="L15" s="3">
+        <v>21.4</v>
+      </c>
+      <c r="M15" s="3">
+        <v>35.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>20</v>
+      </c>
+      <c r="J16" s="3">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>101</v>
+      </c>
+      <c r="L16" s="3">
+        <v>20.2</v>
+      </c>
+      <c r="M16" s="3">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>37</v>
       </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <v>6</v>
       </c>
-      <c r="F15">
-        <v>10</v>
-      </c>
-      <c r="I15">
-        <v>16</v>
-      </c>
-      <c r="J15" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="K15">
-        <v>105</v>
-      </c>
-      <c r="L15" s="3">
-        <v>21</v>
-      </c>
-      <c r="M15" s="3">
-        <v>34.200000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>7</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>7</v>
-      </c>
-      <c r="J16" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="K16">
-        <v>114</v>
-      </c>
-      <c r="L16" s="3">
-        <v>22.8</v>
-      </c>
-      <c r="M16" s="3">
-        <v>34.200000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>7</v>
-      </c>
       <c r="F17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I17">
         <v>16</v>
       </c>
       <c r="J17" s="3">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="K17">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L17" s="3">
-        <v>20.2</v>
+        <v>21</v>
       </c>
       <c r="M17" s="3">
-        <v>33.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -1470,270 +1470,270 @@
         <v>7</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I18">
+        <v>7</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="K18">
+        <v>114</v>
+      </c>
+      <c r="L18" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="M18" s="3">
+        <v>34.549999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="I19">
+        <v>16</v>
+      </c>
+      <c r="J19" s="3">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>101</v>
+      </c>
+      <c r="L19" s="3">
+        <v>20.2</v>
+      </c>
+      <c r="M19" s="3">
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>18</v>
+      </c>
+      <c r="J20" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="K20">
+        <v>98</v>
+      </c>
+      <c r="L20" s="3">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="M20" s="3">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>18</v>
+      </c>
+      <c r="J21" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="K21">
+        <v>97</v>
+      </c>
+      <c r="L21" s="3">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="M21" s="3">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="K18">
-        <v>99</v>
-      </c>
-      <c r="L18" s="3">
-        <v>19.8</v>
-      </c>
-      <c r="M18" s="3">
-        <v>33.200000000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19">
-        <v>10</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>8</v>
-      </c>
-      <c r="F19">
-        <v>10</v>
-      </c>
-      <c r="I19">
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>17</v>
+      </c>
+      <c r="J22" s="3">
+        <v>4.25</v>
+      </c>
+      <c r="K22">
+        <v>98</v>
+      </c>
+      <c r="L22" s="3">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="M22" s="3">
+        <v>33.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>19</v>
+      </c>
+      <c r="J23" s="3">
+        <v>4.75</v>
+      </c>
+      <c r="K23">
+        <v>90</v>
+      </c>
+      <c r="L23" s="3">
         <v>18</v>
       </c>
-      <c r="J19" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="K19">
-        <v>98</v>
-      </c>
-      <c r="L19" s="3">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="M19" s="3">
-        <v>33.200000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20">
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>10</v>
-      </c>
-      <c r="F20">
-        <v>10</v>
-      </c>
-      <c r="I20">
-        <v>20</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="M23" s="3">
+        <v>32.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>9</v>
+      </c>
+      <c r="I24">
+        <v>16</v>
+      </c>
+      <c r="J24" s="3">
         <v>4</v>
       </c>
-      <c r="K20">
-        <v>96</v>
-      </c>
-      <c r="L20" s="3">
-        <v>19.2</v>
-      </c>
-      <c r="M20" s="3">
-        <v>33.200000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>7</v>
-      </c>
-      <c r="F21">
-        <v>10</v>
-      </c>
-      <c r="I21">
-        <v>17</v>
-      </c>
-      <c r="J21" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="K21">
-        <v>98</v>
-      </c>
-      <c r="L21" s="3">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="M21" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>8</v>
-      </c>
-      <c r="F22">
-        <v>10</v>
-      </c>
-      <c r="I22">
-        <v>18</v>
-      </c>
-      <c r="J22" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="K22">
-        <v>97</v>
-      </c>
-      <c r="L22" s="3">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="M22" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="K24">
+        <v>92</v>
+      </c>
+      <c r="L24" s="3">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="M24" s="3">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A25" t="s">
         <v>47</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>48</v>
       </c>
-      <c r="C23">
-        <v>10</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>6</v>
-      </c>
-      <c r="F23">
-        <v>9</v>
-      </c>
-      <c r="I23">
-        <v>15</v>
-      </c>
-      <c r="J23" s="3">
-        <v>3</v>
-      </c>
-      <c r="K23">
-        <v>93</v>
-      </c>
-      <c r="L23" s="3">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="M23" s="3">
-        <v>31.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24">
-        <v>10</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>9</v>
-      </c>
-      <c r="F24">
-        <v>10</v>
-      </c>
-      <c r="I24">
-        <v>19</v>
-      </c>
-      <c r="J24" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="K24">
-        <v>89</v>
-      </c>
-      <c r="L24" s="3">
-        <v>17.8</v>
-      </c>
-      <c r="M24" s="3">
-        <v>31.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25">
-        <v>10</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>7</v>
       </c>
       <c r="F25">
         <v>9</v>
       </c>
       <c r="I25">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J25" s="3">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="K25">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L25" s="3">
-        <v>17.600000000000001</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="M25" s="3">
-        <v>30.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+        <v>32.35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>16</v>
       </c>
       <c r="J26" s="3">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="K26">
         <v>87</v>
@@ -1765,10 +1765,10 @@
         <v>17.399999999999999</v>
       </c>
       <c r="M26" s="3">
-        <v>30.599999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K27">
         <v>82</v>
@@ -1800,10 +1800,10 @@
         <v>16.399999999999999</v>
       </c>
       <c r="M27" s="3">
-        <v>30.4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>18</v>
       </c>
       <c r="J28" s="3">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="K28">
         <v>84</v>
@@ -1835,47 +1835,47 @@
         <v>16.8</v>
       </c>
       <c r="M28" s="3">
-        <v>30.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>20</v>
+      </c>
+      <c r="J29" s="3">
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>80</v>
+      </c>
+      <c r="L29" s="3">
+        <v>16</v>
+      </c>
+      <c r="M29" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A30" t="s">
         <v>59</v>
-      </c>
-      <c r="B29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29">
-        <v>10</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>7</v>
-      </c>
-      <c r="F29">
-        <v>10</v>
-      </c>
-      <c r="I29">
-        <v>17</v>
-      </c>
-      <c r="J29" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="K29">
-        <v>83</v>
-      </c>
-      <c r="L29" s="3">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="M29" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>61</v>
       </c>
       <c r="B30" t="s">
         <v>60</v>
@@ -1890,60 +1890,60 @@
         <v>7</v>
       </c>
       <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <v>17</v>
+      </c>
+      <c r="J30" s="3">
+        <v>4.25</v>
+      </c>
+      <c r="K30">
+        <v>83</v>
+      </c>
+      <c r="L30" s="3">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="M30" s="3">
+        <v>30.85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>7</v>
+      </c>
+      <c r="F31">
         <v>9</v>
       </c>
-      <c r="I30">
+      <c r="I31">
         <v>16</v>
-      </c>
-      <c r="J30" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="K30">
-        <v>84</v>
-      </c>
-      <c r="L30" s="3">
-        <v>16.8</v>
-      </c>
-      <c r="M30" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31">
-        <v>10</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>10</v>
-      </c>
-      <c r="F31">
-        <v>10</v>
-      </c>
-      <c r="I31">
-        <v>20</v>
       </c>
       <c r="J31" s="3">
         <v>4</v>
       </c>
       <c r="K31">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L31" s="3">
-        <v>16</v>
+        <v>16.8</v>
       </c>
       <c r="M31" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K32">
         <v>79</v>
@@ -1975,10 +1975,10 @@
         <v>15.8</v>
       </c>
       <c r="M32" s="3">
-        <v>29.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K33">
         <v>76</v>
@@ -2010,15 +2010,15 @@
         <v>15.2</v>
       </c>
       <c r="M33" s="3">
-        <v>29.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C34">
         <v>10</v>
@@ -2036,39 +2036,39 @@
         <v>16</v>
       </c>
       <c r="J34" s="3">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="K34">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L34" s="3">
+        <v>16.2</v>
+      </c>
+      <c r="M34" s="3">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>9</v>
+      </c>
+      <c r="I35">
         <v>16</v>
-      </c>
-      <c r="M34" s="3">
-        <v>29.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35">
-        <v>9</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>10</v>
-      </c>
-      <c r="F35">
-        <v>10</v>
-      </c>
-      <c r="I35">
-        <v>20</v>
       </c>
       <c r="J35" s="3">
         <v>4</v>
@@ -2080,45 +2080,45 @@
         <v>16</v>
       </c>
       <c r="M35" s="3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I36">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J36" s="3">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="K36">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="L36" s="3">
-        <v>17.600000000000001</v>
+        <v>16</v>
       </c>
       <c r="M36" s="3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>17</v>
       </c>
       <c r="J37" s="3">
-        <v>3.4</v>
+        <v>4.25</v>
       </c>
       <c r="K37">
         <v>76</v>
@@ -2150,115 +2150,115 @@
         <v>15.2</v>
       </c>
       <c r="M37" s="3">
-        <v>28.6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+        <v>29.45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>7</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>7</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="K38">
+        <v>88</v>
+      </c>
+      <c r="L38" s="3">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="M38" s="3">
+        <v>29.35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A39" t="s">
         <v>73</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>25</v>
       </c>
-      <c r="C38">
-        <v>10</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
         <v>6</v>
       </c>
-      <c r="F38">
+      <c r="F39">
         <v>7</v>
       </c>
-      <c r="I38">
+      <c r="I39">
         <v>13</v>
       </c>
-      <c r="J38" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="K38">
+      <c r="J39" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="K39">
         <v>80</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L39" s="3">
         <v>16</v>
       </c>
-      <c r="M38" s="3">
-        <v>28.6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="M39" s="3">
+        <v>29.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="F40">
+        <v>9</v>
+      </c>
+      <c r="I40">
+        <v>15</v>
+      </c>
+      <c r="J40" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="K40">
         <v>75</v>
       </c>
-      <c r="C39">
-        <v>10</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>7</v>
-      </c>
-      <c r="F39">
-        <v>9</v>
-      </c>
-      <c r="I39">
-        <v>16</v>
-      </c>
-      <c r="J39" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="K39">
-        <v>76</v>
-      </c>
-      <c r="L39" s="3">
-        <v>15.2</v>
-      </c>
-      <c r="M39" s="3">
-        <v>28.4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40">
-        <v>10</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>7</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>7</v>
-      </c>
-      <c r="J40" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="K40">
-        <v>84</v>
-      </c>
       <c r="L40" s="3">
-        <v>16.8</v>
+        <v>15</v>
       </c>
       <c r="M40" s="3">
-        <v>28.200000000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+        <v>28.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>16</v>
       </c>
       <c r="J41" s="3">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="K41">
         <v>73</v>
@@ -2290,15 +2290,15 @@
         <v>14.6</v>
       </c>
       <c r="M41" s="3">
-        <v>27.799999999999997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="C42">
         <v>10</v>
@@ -2307,28 +2307,28 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F42">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J42" s="3">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="K42">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="L42" s="3">
-        <v>14</v>
+        <v>16.8</v>
       </c>
       <c r="M42" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+        <v>28.55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
         <v>80</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>20</v>
       </c>
       <c r="J43" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K43">
         <v>64</v>
@@ -2360,10 +2360,10 @@
         <v>12.8</v>
       </c>
       <c r="M43" s="3">
-        <v>26.8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>19</v>
       </c>
       <c r="J44" s="3">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="K44">
         <v>65</v>
@@ -2395,10 +2395,10 @@
         <v>13</v>
       </c>
       <c r="M44" s="3">
-        <v>26.8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>15</v>
       </c>
       <c r="J45" s="3">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="K45">
         <v>66</v>
@@ -2430,15 +2430,15 @@
         <v>13.2</v>
       </c>
       <c r="M45" s="3">
-        <v>26.2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+        <v>26.95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C46">
         <v>10</v>
@@ -2447,33 +2447,33 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F46">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I46">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J46" s="3">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="K46">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="L46" s="3">
-        <v>13</v>
+        <v>11.8</v>
       </c>
       <c r="M46" s="3">
-        <v>25.6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+        <v>26.55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C47">
         <v>10</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="F47">
         <v>9</v>
-      </c>
-      <c r="F47">
-        <v>10</v>
       </c>
       <c r="I47">
         <v>19</v>
       </c>
       <c r="J47" s="3">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="K47">
         <v>59</v>
@@ -2500,10 +2500,10 @@
         <v>11.8</v>
       </c>
       <c r="M47" s="3">
-        <v>25.6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+        <v>26.55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>17</v>
       </c>
       <c r="J48" s="3">
-        <v>3.4</v>
+        <v>4.25</v>
       </c>
       <c r="K48">
         <v>61</v>
@@ -2535,115 +2535,115 @@
         <v>12.2</v>
       </c>
       <c r="M48" s="3">
-        <v>25.6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+        <v>26.45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
+      <c r="F49">
+        <v>7</v>
+      </c>
+      <c r="I49">
+        <v>13</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="K49">
+        <v>65</v>
+      </c>
+      <c r="L49" s="3">
+        <v>13</v>
+      </c>
+      <c r="M49" s="3">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A50" t="s">
         <v>92</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>93</v>
       </c>
-      <c r="C49">
-        <v>10</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
+      <c r="C50">
+        <v>10</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
         <v>8</v>
       </c>
-      <c r="F49">
-        <v>10</v>
-      </c>
-      <c r="I49">
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="I50">
         <v>18</v>
       </c>
-      <c r="J49" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="K49">
+      <c r="J50" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="K50">
         <v>58</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L50" s="3">
         <v>11.6</v>
       </c>
-      <c r="M49" s="3">
-        <v>25.2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="M50" s="3">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A51" t="s">
         <v>94</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>13</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <v>9</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>10</v>
-      </c>
-      <c r="F50">
-        <v>10</v>
-      </c>
-      <c r="I50">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+      <c r="I51">
         <v>20</v>
       </c>
-      <c r="J50" s="3">
-        <v>4</v>
-      </c>
-      <c r="K50">
+      <c r="J51" s="3">
+        <v>5</v>
+      </c>
+      <c r="K51">
         <v>59</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L51" s="3">
         <v>11.8</v>
       </c>
-      <c r="M50" s="3">
-        <v>24.8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51">
-        <v>10</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>10</v>
-      </c>
-      <c r="F51">
-        <v>9</v>
-      </c>
-      <c r="I51">
-        <v>19</v>
-      </c>
-      <c r="J51" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="K51">
-        <v>54</v>
-      </c>
-      <c r="L51" s="3">
-        <v>10.8</v>
-      </c>
       <c r="M51" s="3">
-        <v>24.6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A52" t="s">
         <v>96</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>20</v>
       </c>
       <c r="J52" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K52">
         <v>51</v>
@@ -2675,10 +2675,10 @@
         <v>10.199999999999999</v>
       </c>
       <c r="M52" s="3">
-        <v>24.2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>6</v>
       </c>
       <c r="J53" s="3">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="K53">
         <v>61</v>
@@ -2710,15 +2710,15 @@
         <v>12.2</v>
       </c>
       <c r="M53" s="3">
-        <v>23.4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="B54" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="C54">
         <v>10</v>
@@ -2727,28 +2727,28 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F54">
         <v>9</v>
       </c>
       <c r="I54">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J54" s="3">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="K54">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L54" s="3">
-        <v>9.1999999999999993</v>
+        <v>9</v>
       </c>
       <c r="M54" s="3">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
         <v>100</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>16</v>
       </c>
       <c r="J55" s="3">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="K55">
         <v>45</v>
@@ -2780,18 +2780,18 @@
         <v>9</v>
       </c>
       <c r="M55" s="3">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C56">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2800,25 +2800,25 @@
         <v>6</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I56">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J56" s="3">
-        <v>1.2</v>
+        <v>3.75</v>
       </c>
       <c r="K56">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="L56" s="3">
-        <v>11.4</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="M56" s="3">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+        <v>22.95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>20</v>
       </c>
       <c r="J57" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K57">
         <v>37</v>
@@ -2850,45 +2850,45 @@
         <v>7.4</v>
       </c>
       <c r="M57" s="3">
-        <v>21.4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B58" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C58">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F58">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J58" s="3">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="K58">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="L58" s="3">
-        <v>8</v>
+        <v>11.4</v>
       </c>
       <c r="M58" s="3">
-        <v>20.8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A59" t="s">
         <v>107</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>20</v>
       </c>
       <c r="J59" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K59">
         <v>33</v>
@@ -2920,15 +2920,15 @@
         <v>6.6</v>
       </c>
       <c r="M59" s="3">
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C60">
         <v>10</v>
@@ -2940,65 +2940,65 @@
         <v>7</v>
       </c>
       <c r="F60">
+        <v>7</v>
+      </c>
+      <c r="I60">
+        <v>14</v>
+      </c>
+      <c r="J60" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K60">
+        <v>40</v>
+      </c>
+      <c r="L60" s="3">
+        <v>8</v>
+      </c>
+      <c r="M60" s="3">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A61" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>7</v>
+      </c>
+      <c r="F61">
         <v>6</v>
       </c>
-      <c r="I60">
+      <c r="I61">
         <v>13</v>
       </c>
-      <c r="J60" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="K60">
+      <c r="J61" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="K61">
         <v>27</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L61" s="3">
         <v>5.4</v>
       </c>
-      <c r="M60" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="M61" s="3">
+        <v>18.649999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A62" t="s">
         <v>110</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>89</v>
-      </c>
-      <c r="C61">
-        <v>10</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>6</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>6</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="K61">
-        <v>33</v>
-      </c>
-      <c r="L61" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="M61" s="3">
-        <v>17.799999999999997</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>111</v>
-      </c>
-      <c r="B62" t="s">
-        <v>112</v>
       </c>
       <c r="C62">
         <v>10</v>
@@ -3010,62 +3010,62 @@
         <v>6</v>
       </c>
       <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>6</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K62">
+        <v>33</v>
+      </c>
+      <c r="L62" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="M62" s="3">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A63" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>6</v>
+      </c>
+      <c r="F63">
         <v>7</v>
       </c>
-      <c r="I62">
+      <c r="I63">
         <v>13</v>
       </c>
-      <c r="J62" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="K62">
-        <v>10</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="J63" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="K63">
+        <v>10</v>
+      </c>
+      <c r="L63" s="3">
         <v>2</v>
       </c>
-      <c r="M62" s="3">
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="M63" s="3">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A64" t="s">
         <v>113</v>
-      </c>
-      <c r="B63" t="s">
-        <v>30</v>
-      </c>
-      <c r="C63">
-        <v>10</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>7</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>7</v>
-      </c>
-      <c r="J63" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="K63">
-        <v>15</v>
-      </c>
-      <c r="L63" s="3">
-        <v>3</v>
-      </c>
-      <c r="M63" s="3">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>114</v>
       </c>
       <c r="B64" t="s">
         <v>30</v>
@@ -3077,28 +3077,28 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F64">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J64" s="3">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="K64">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="L64" s="3">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="M64" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
         <v>115</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>9</v>
       </c>
       <c r="J65" s="3">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K65">
         <v>11</v>
@@ -3130,10 +3130,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M65" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+        <v>14.45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
         <v>116</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>6</v>
       </c>
       <c r="J66" s="3">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="K66">
         <v>19</v>
@@ -3165,10 +3165,10 @@
         <v>3.8</v>
       </c>
       <c r="M66" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
         <v>118</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>7</v>
       </c>
       <c r="J67" s="3">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -3200,7 +3200,7 @@
         <v>0.4</v>
       </c>
       <c r="M67" s="3">
-        <v>11.8</v>
+        <v>12.15</v>
       </c>
     </row>
   </sheetData>
